--- a/src/test/resources/android_translations_sample.xlsx
+++ b/src/test/resources/android_translations_sample.xlsx
@@ -12,33 +12,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
-  <si>
-    <t>Language ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+  <si>
+    <t>BasePath</t>
+  </si>
+  <si>
+    <t>C:\Users\juan.saravia\git\</t>
+  </si>
+  <si>
+    <t>LanguageID</t>
+  </si>
+  <si>
+    <t>Folder</t>
   </si>
   <si>
     <t>Language</t>
   </si>
   <si>
-    <t>Folder</t>
-  </si>
-  <si>
     <t>da</t>
   </si>
   <si>
+    <t>values-da</t>
+  </si>
+  <si>
     <t>Danish</t>
   </si>
   <si>
-    <t>values-da</t>
-  </si>
-  <si>
     <t>fr</t>
   </si>
   <si>
+    <t>values-fr</t>
+  </si>
+  <si>
     <t>French</t>
   </si>
   <si>
-    <t>values-fr</t>
+    <t>path</t>
   </si>
   <si>
     <t>fileName</t>
@@ -48,6 +57,9 @@
   </si>
   <si>
     <t>de</t>
+  </si>
+  <si>
+    <t>disney-support-library\disney-support-lib\src\main\res</t>
   </si>
   <si>
     <t>strings.xml</t>
@@ -82,23 +94,33 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <b/>
     </font>
+    <font/>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -112,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -122,9 +144,12 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
@@ -161,30 +186,39 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="C1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -200,51 +234,60 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>17</v>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
